--- a/autoPy/data/case_data.xlsx
+++ b/autoPy/data/case_data.xlsx
@@ -1,5 +1,776 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF13C6B-5FE5-49D7-8CD7-BF29AD605F26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="用例说明文档" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="144525"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>用例标题</t>
+  </si>
+  <si>
+    <t>接口地址</t>
+  </si>
+  <si>
+    <t>是否执行</t>
+  </si>
+  <si>
+    <t>token操作</t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>入参关键字</t>
+  </si>
+  <si>
+    <t>文件对象的参数名</t>
+  </si>
+  <si>
+    <t>上传文件路径</t>
+  </si>
+  <si>
+    <t>路径参数提取</t>
+  </si>
+  <si>
+    <t>依赖数据</t>
+  </si>
+  <si>
+    <t>请求数据</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>case_001</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>case_002</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>case_003</t>
+  </si>
+  <si>
+    <t>get请求查询用户数据列表</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>读</t>
+  </si>
+  <si>
+    <t>key={"case_002": ["$.data.id"],"case_001":["$.meta.msg","$.meta.status"]}</t>
+  </si>
+  <si>
+    <t>{"pagenum": 1, "pagesize": "12"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取管理员列表成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>", "status": 200}</t>
+    </r>
+  </si>
+  <si>
+    <t>case_004</t>
+  </si>
+  <si>
+    <t>{"case_002": ["$.data.id"],"case_001":["$.meta.msg","$.meta.status"]}</t>
+  </si>
+  <si>
+    <t>case_005</t>
+  </si>
+  <si>
+    <t>添加用户正常接口数据</t>
+  </si>
+  <si>
+    <t>{"username": "tester_zy7y1213","password": "123456"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"msg":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>","status":201}</t>
+    </r>
+  </si>
+  <si>
+    <t>case_006</t>
+  </si>
+  <si>
+    <t>修改用户状态接口</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>/{"case_005":"$.data.id"}/state/{"case_005":"$.data.create_time"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置状态成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>", "status": 200}</t>
+    </r>
+  </si>
+  <si>
+    <t>case_007</t>
+  </si>
+  <si>
+    <t>修改用户状态为2</t>
+  </si>
+  <si>
+    <t>/{"case_005":"$.data.id"}/state/2</t>
+  </si>
+  <si>
+    <t>case_008</t>
+  </si>
+  <si>
+    <t>删除用户zy7y</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>/{"case_005":"$.data.id"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>", "status": 200}</t>
+    </r>
+  </si>
+  <si>
+    <t>case_009</t>
+  </si>
+  <si>
+    <t>{"pagenum": 1, "pagesize": "12","id":[1]}</t>
+  </si>
+  <si>
+    <t>case_data.xlsx部分字段格式说明(解析)</t>
+  </si>
+  <si>
+    <r>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+  </si>
+  <si>
+    <t>将选择headers中使用那个字典。
+1. 写：在能正常登录的接口中使用，它将会提取响应中token的值，并写入一个token_header字典中
+2. 读：在需要token依赖的接口中使用，它将会使用token_header这个字典(里面会存留登录之后的token)
+3. 不填写内容，将使用一个no_token_header字典</t>
+  </si>
+  <si>
+    <t>按道理支持目前所有的请求方式:get/post/put/delete..</t>
+  </si>
+  <si>
+    <r>
+      <t>1. params</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：可用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>get/delete/head/options/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>post/put/patch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求可使用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>content-type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表单类型。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>post/put/patch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求可使用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>content-type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>application/json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>文件对象参数</t>
+  </si>
+  <si>
+    <t>指接口中接受文件上传内容的请求参数变量</t>
+  </si>
+  <si>
+    <t>上传文件对象路径填写形式</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个文件上传，直接使用地址，实例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/Users/zy7y/Desktop/vue.js
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个文件上传，使用列表形式传递，如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>["/Users/zy7y/Desktop/vue.js","/Users/zy7y/Desktop/jenkins.war"]</t>
+    </r>
+  </si>
+  <si>
+    <t>解决path参数(携带在url中的参数，非查询参数?)依赖问题，提取出来的字符串将与url进行拼接后在发送请求。
+最终url请求的则是：Host + 接口地址 + 路径参数提取解析后的地址
+1. 接口path参数实例：Excel 中书写形式：/{"用例编号":"jsonpath表达式"}/
+2. 实例：{"case_002":"$.data.id"}/item/{"case_002":"$.meta.status"} 表示从用例case_002编号，执行后的实际响应结果中，使用jsonpath表达式提取到其中的id，用例编号002实际响应结果中提取meta下面的status业务状态码内容，
+3.结果：上面表达式提取的结果大致如下:500/item/201。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">该接口需要上个接口实际响应结果总某个数据，提取出的字典会与请求数据进行合并，实际发送请求的data使用了依赖数据返回的字典和本来的数据
+1. Excel中书写形式：{"用例编号":["提取表达式1","jsonpath提取表达式2"]}
+2. 实例：{"case_002": ["$.data.id"], "case_001":["$.meta.msg","$.meta.status"]}
+3. 实例2的结果：从用例case_002实际响应中提取id从用例case_001中实际响应结果中提取msg，status业务状态嘛,最后返回一个依赖数据字典:{'id': 500, 'msg': '参数错误', 'status': 400}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果需要以嵌套的形式放到data中请使用 需要嵌套的键 = {"用例编号":["提取表达式1","jsonpath提取表达式2"]}；实例，key={"case_002": ["$.data.id"],"case_001":["$.meta.msg","$.meta.status"]}， 最终请求数据内容如下：{'key': {'id': 500, 'msg': '参数错误', 'status': 400}, 'pagenum': 1, 'pagesize': '12'}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>这里的预期结果传入的是一个字典形式</t>
+  </si>
+  <si>
+    <t>/open/login/as</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取管理员列表成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>", "status": 200}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dhId": "wangyan","key":"666"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试请求数据与依赖数据相同key的情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>写</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求实现登录</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理分页查询</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/department/page-query</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>读</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"page": "0", "size": "20","query":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电梦网络测试组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"success","code":0 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>从实际数据提取jsonpath</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>['success', 0]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.[message,code]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="10"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -251,9 +1022,728 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="56.42578125" customWidth="1"/>
+    <col min="11" max="11" width="62.7109375" customWidth="1"/>
+    <col min="12" max="12" width="41.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="14" max="14" width="54.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D1:D9 D11:D65536" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G1:G9 G11:G65536" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"params,data,json"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="C1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="13" max="13" width="71.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:13" ht="33" customHeight="1">
+      <c r="D1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="4:13">
+      <c r="D2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="4:13">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="4:13" ht="78" customHeight="1">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="4:13">
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="4:13">
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="4:13" ht="15" customHeight="1">
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="4:13">
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="4:13">
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="4:13" ht="45" customHeight="1">
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="4:13" ht="44.1" customHeight="1">
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="4:13">
+      <c r="D12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="4:13">
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="4:13" ht="30.95" customHeight="1">
+      <c r="D14" s="10"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="4:13">
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="4:13">
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="4:13" ht="108" customHeight="1">
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="4:13">
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="4:13">
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="4:13" ht="153" customHeight="1">
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="4:13">
+      <c r="D21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="4:13">
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="4:13">
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E2:M4"/>
+    <mergeCell ref="E5:M7"/>
+    <mergeCell ref="E8:M10"/>
+    <mergeCell ref="E12:M14"/>
+    <mergeCell ref="E15:M17"/>
+    <mergeCell ref="E18:M20"/>
+    <mergeCell ref="E21:M23"/>
+    <mergeCell ref="D12:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/autoPy/data/case_data.xlsx
+++ b/autoPy/data/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF13C6B-5FE5-49D7-8CD7-BF29AD605F26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86400EF8-13FD-4679-ABF4-A3C2BB712D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,12 @@
     <sheet name="用例说明文档" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t>用例编号</t>
   </si>
@@ -612,6 +613,14 @@
   </si>
   <si>
     <t>$.[message,code]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据校验</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_log:1|demand:1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -733,26 +742,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1031,10 +1040,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1049,9 +1058,10 @@
     <col min="12" max="12" width="41.140625" customWidth="1"/>
     <col min="13" max="13" width="21.28515625" customWidth="1"/>
     <col min="14" max="14" width="54.85546875" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1">
+    <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1088,14 +1098,17 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="9" t="s">
         <v>72</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O1" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1108,7 +1121,7 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1126,12 +1139,15 @@
       <c r="N2" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="12" customHeight="1">
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="12" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1159,7 +1175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12" customHeight="1">
+    <row r="4" spans="1:15" ht="12" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1191,7 +1207,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="12" customHeight="1">
+    <row r="5" spans="1:15" ht="12" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1220,7 +1236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12" customHeight="1">
+    <row r="6" spans="1:15" ht="12" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1249,7 +1265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="12" customHeight="1">
+    <row r="7" spans="1:15" ht="12" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1278,7 +1294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12" customHeight="1">
+    <row r="8" spans="1:15" ht="12" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1307,7 +1323,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="12" customHeight="1">
+    <row r="9" spans="1:15" ht="12" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1409,61 +1425,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" ht="33" customHeight="1">
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="4:13">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="4:13">
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="4:13" ht="78" customHeight="1">
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="4:13">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -1479,7 +1495,7 @@
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="4:13">
-      <c r="D6" s="10"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1491,7 +1507,7 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="4:13" ht="15" customHeight="1">
-      <c r="D7" s="10"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -1503,44 +1519,44 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="4:13">
-      <c r="D9" s="10"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="4:13" ht="45" customHeight="1">
-      <c r="D10" s="10"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="4:13" ht="44.1" customHeight="1">
       <c r="D11" s="1" t="s">
@@ -1559,172 +1575,167 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="4:13">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="4:13">
-      <c r="D13" s="10"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="4:13" ht="30.95" customHeight="1">
-      <c r="D14" s="10"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="4:13">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="4:13">
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="4:13" ht="108" customHeight="1">
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="4:13">
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
     </row>
     <row r="20" spans="4:13" ht="153" customHeight="1">
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="D21:D23"/>
@@ -1736,6 +1747,11 @@
     <mergeCell ref="E18:M20"/>
     <mergeCell ref="E21:M23"/>
     <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/autoPy/data/case_data.xlsx
+++ b/autoPy/data/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86400EF8-13FD-4679-ABF4-A3C2BB712D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C3AA7-488B-46F8-9236-10C828ADA8FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="用例说明文档" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -608,10 +607,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>['success', 0]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>$.[message,code]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -620,7 +615,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>access_log:1|demand:1</t>
+    <t>access_log:1|access_log:2|demand:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"success","code":0}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -744,23 +743,23 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,10 +1039,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1056,7 +1055,7 @@
     <col min="10" max="10" width="56.42578125" customWidth="1"/>
     <col min="11" max="11" width="62.7109375" customWidth="1"/>
     <col min="12" max="12" width="41.140625" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
     <col min="14" max="14" width="54.85546875" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
@@ -1105,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
@@ -1134,13 +1133,13 @@
         <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1">
@@ -1169,47 +1168,26 @@
         <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="L4" s="2"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -1220,86 +1198,89 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="12" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>31</v>
+      <c r="K6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" t="s">
-        <v>36</v>
+      <c r="L7" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1317,7 +1298,7 @@
         <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>37</v>
@@ -1325,72 +1306,101 @@
     </row>
     <row r="9" spans="1:15" ht="12" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="12" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D1:D9 D11:D65536" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D1:D10 D12:D65537" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10 G1:G9 G11:G65536" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G1:G10 G12:G65537" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1425,317 +1435,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" ht="33" customHeight="1">
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="4:13">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="4:13">
-      <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="4:13" ht="78" customHeight="1">
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="4:13">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="4:13">
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="4:13" ht="15" customHeight="1">
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="4:13">
-      <c r="D9" s="13"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="4:13" ht="45" customHeight="1">
-      <c r="D10" s="13"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="4:13" ht="44.1" customHeight="1">
       <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="4:13">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="4:13">
-      <c r="D13" s="13"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="4:13" ht="30.95" customHeight="1">
-      <c r="D14" s="13"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
     </row>
     <row r="15" spans="4:13">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="4:13">
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="4:13" ht="108" customHeight="1">
-      <c r="D17" s="13"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="4:13">
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="4:13" ht="153" customHeight="1">
-      <c r="D20" s="13"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="D23" s="13"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="D21:D23"/>
@@ -1747,11 +1762,6 @@
     <mergeCell ref="E18:M20"/>
     <mergeCell ref="E21:M23"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/autoPy/data/case_data.xlsx
+++ b/autoPy/data/case_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C3AA7-488B-46F8-9236-10C828ADA8FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33D465C-F146-4CD0-A03E-C328F97AF0A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
   <si>
     <t>用例编号</t>
   </si>
@@ -74,9 +74,6 @@
     <t>params</t>
   </si>
   <si>
-    <t>case_002</t>
-  </si>
-  <si>
     <t>post</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
   </si>
   <si>
     <t>delete</t>
-  </si>
-  <si>
-    <t>/{"case_005":"$.data.id"}</t>
   </si>
   <si>
     <r>
@@ -545,8 +539,89 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>get</t>
+    <t>/api/department/page-query</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>读</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"page": "0", "size": "20","query":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电梦网络测试组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"success","code":0 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>从实际数据提取jsonpath</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.[message,code]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据校验</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_log:1|access_log:2|demand:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"success","code":0}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_003</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理|部门管理分页查询</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|get</t>
     </r>
     <r>
       <rPr>
@@ -560,25 +635,32 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>部门管理分页查询</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/department/page-query</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>读</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"page": "0", "size": "20","query":"</t>
-    </r>
+    <t>部门管理|获取所有的三级部门</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/department</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+  </si>
+  <si>
+    <t>case_002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_004</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -586,40 +668,78 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>电梦网络测试组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"message":"success","code":0 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>从实际数据提取jsonpath</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.[message,code]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据校验</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>access_log:1|access_log:2|demand:1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"message":"success","code":0}</t>
+      <t>部门管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取本人管理的部门列表</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/department/my</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_005</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看详情</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{"case_005":"$.data.id"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{"case_004":"$.data.adminUserList.department.id"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -683,6 +803,17 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -725,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,6 +892,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1039,10 +1172,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1098,30 +1231,30 @@
         <v>11</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
+      <c r="B2" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -1130,277 +1263,352 @@
         <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="12" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="12" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="L4" s="2"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="12" customHeight="1">
+      <c r="M4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="12" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="12" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="J39" t="s">
+        <v>86</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="12" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="12" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="12" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="12" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D1:D10 D12:D65537" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D65537 D1:D4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G1:G10 G12:G65537" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G65537 G1:G4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1421,8 +1629,8 @@
   </sheetPr>
   <dimension ref="C1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1436,7 +1644,7 @@
   <sheetData>
     <row r="1" spans="4:13" ht="33" customHeight="1">
       <c r="D1" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -1450,10 +1658,10 @@
     </row>
     <row r="2" spans="4:13">
       <c r="D2" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -1493,7 +1701,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1533,7 +1741,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1570,10 +1778,10 @@
     </row>
     <row r="11" spans="4:13" ht="44.1" customHeight="1">
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1586,10 +1794,10 @@
     </row>
     <row r="12" spans="4:13">
       <c r="D12" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -1629,7 +1837,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -1669,7 +1877,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -1709,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>

--- a/autoPy/data/case_data.xlsx
+++ b/autoPy/data/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33D465C-F146-4CD0-A03E-C328F97AF0A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E026DD84-B693-482D-A504-1C05FE4B5E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>用例编号</t>
   </si>
@@ -72,165 +72,6 @@
   </si>
   <si>
     <t>params</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>case_003</t>
-  </si>
-  <si>
-    <t>get请求查询用户数据列表</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>读</t>
-  </si>
-  <si>
-    <t>key={"case_002": ["$.data.id"],"case_001":["$.meta.msg","$.meta.status"]}</t>
-  </si>
-  <si>
-    <t>{"pagenum": 1, "pagesize": "12"}</t>
-  </si>
-  <si>
-    <r>
-      <t>{"msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取管理员列表成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>", "status": 200}</t>
-    </r>
-  </si>
-  <si>
-    <t>case_004</t>
-  </si>
-  <si>
-    <t>{"case_002": ["$.data.id"],"case_001":["$.meta.msg","$.meta.status"]}</t>
-  </si>
-  <si>
-    <t>case_005</t>
-  </si>
-  <si>
-    <t>添加用户正常接口数据</t>
-  </si>
-  <si>
-    <t>{"username": "tester_zy7y1213","password": "123456"}</t>
-  </si>
-  <si>
-    <r>
-      <t>{"msg":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>","status":201}</t>
-    </r>
-  </si>
-  <si>
-    <t>case_006</t>
-  </si>
-  <si>
-    <t>修改用户状态接口</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>/{"case_005":"$.data.id"}/state/{"case_005":"$.data.create_time"}</t>
-  </si>
-  <si>
-    <r>
-      <t>{"msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设置状态成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>", "status": 200}</t>
-    </r>
-  </si>
-  <si>
-    <t>case_007</t>
-  </si>
-  <si>
-    <t>修改用户状态为2</t>
-  </si>
-  <si>
-    <t>/{"case_005":"$.data.id"}/state/2</t>
-  </si>
-  <si>
-    <t>case_008</t>
-  </si>
-  <si>
-    <t>删除用户zy7y</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <r>
-      <t>{"msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删除成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>", "status": 200}</t>
-    </r>
-  </si>
-  <si>
-    <t>case_009</t>
-  </si>
-  <si>
-    <t>{"pagenum": 1, "pagesize": "12","id":[1]}</t>
   </si>
   <si>
     <t>case_data.xlsx部分字段格式说明(解析)</t>
@@ -505,16 +346,37 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{"msg": "</t>
+    <t>{"dhId": "wangyan","key":"666"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>写</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/department/page-query</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>读</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"page": "0", "size": "20","query":"</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取管理员列表成功</t>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电梦网络测试组</t>
     </r>
     <r>
       <rPr>
@@ -522,38 +384,43 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>", "status": 200}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"dhId": "wangyan","key":"666"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试请求数据与依赖数据相同key的情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>写</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/department/page-query</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>读</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"page": "0", "size": "20","query":"</t>
-    </r>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"success","code":0 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>从实际数据提取jsonpath</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.[message,code]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据校验</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_log:1|access_log:2|demand:1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"success","code":0}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_003</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理|部门管理分页查询</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -561,7 +428,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>电梦网络测试组</t>
+      <t>登录管理</t>
     </r>
     <r>
       <rPr>
@@ -569,40 +436,43 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>"}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"message":"success","code":0 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>从实际数据提取jsonpath</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.[message,code]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据校验</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>access_log:1|access_log:2|demand:1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"message":"success","code":0}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_003</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门管理|部门管理分页查询</t>
+      <t>|get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求实现登录</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理|获取所有的三级部门</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/department</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+  </si>
+  <si>
+    <t>case_002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_004</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -613,7 +483,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>登录管理</t>
+      <t>部门管理</t>
     </r>
     <r>
       <rPr>
@@ -621,46 +491,49 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>|get</t>
+      <t>|</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请求实现登录</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门管理|获取所有的三级部门</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/department</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取本人管理的部门列表</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/department/my</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_005</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门管理</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>是</t>
-    </r>
-  </si>
-  <si>
-    <t>case_002</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_004</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
+      <t>|</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -668,78 +541,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>部门管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取本人管理的部门列表</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/department/my</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_005</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部门管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>查看详情</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>/{"case_005":"$.data.id"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/{"case_004":"$.data.adminUserList.department.id"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>data</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{"case_004":"$.data[0].adminUserList[0].department.id"}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,6 +705,8 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1175,11 +988,12 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="19"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
@@ -1189,12 +1003,12 @@
     <col min="11" max="11" width="62.7109375" customWidth="1"/>
     <col min="12" max="12" width="41.140625" customWidth="1"/>
     <col min="13" max="13" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="54.85546875" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1231,30 +1045,30 @@
         <v>11</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -1263,344 +1077,197 @@
         <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
+      <c r="A3" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>73</v>
+      <c r="A4" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4"/>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="2" t="s">
-        <v>80</v>
+      <c r="A5" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>84</v>
+      <c r="A6" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="12" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="A34" s="20"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="4"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="2"/>
+      <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="12" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="A35" s="20"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="4"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="2"/>
+      <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" ht="12" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A36" s="20"/>
+      <c r="B36" s="6"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="6"/>
+      <c r="L36" s="8"/>
+      <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" ht="12" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A37" s="20"/>
+      <c r="B37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A38" s="20"/>
+      <c r="B38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" t="s">
-        <v>86</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="A39" s="20"/>
+      <c r="B39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="A40" s="20"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="4"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="2"/>
+      <c r="N40" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1644,7 +1311,7 @@
   <sheetData>
     <row r="1" spans="4:13" ht="33" customHeight="1">
       <c r="D1" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -1658,10 +1325,10 @@
     </row>
     <row r="2" spans="4:13">
       <c r="D2" s="12" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -1701,7 +1368,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1741,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1778,10 +1445,10 @@
     </row>
     <row r="11" spans="4:13" ht="44.1" customHeight="1">
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1794,10 +1461,10 @@
     </row>
     <row r="12" spans="4:13">
       <c r="D12" s="11" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -1837,7 +1504,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -1877,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -1917,7 +1584,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>

--- a/autoPy/data/case_data.xlsx
+++ b/autoPy/data/case_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E026DD84-B693-482D-A504-1C05FE4B5E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F78271D-9FAD-4243-AF08-7882333BF682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
   <si>
     <t>用例编号</t>
   </si>
@@ -458,16 +458,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>是</t>
-    </r>
-  </si>
-  <si>
     <t>case_002</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -551,6 +541,621 @@
   </si>
   <si>
     <t>/{"case_004":"$.data[0].adminUserList[0].department.id"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.data.name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电梦网络测试组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" }</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_006</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁用部门</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/department/disable</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{"case_004":"$.data[0].adminUserList[0].department.id"}</t>
+  </si>
+  <si>
+    <t>case_007</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启用部门</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/department/enable</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_008</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取部门下人员信息</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/department/users</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_009</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取已启用的部门（不分页）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/department/list-enable</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_010</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tapd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tapd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目列表</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tapd/projects</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_011</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/admin-user</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>case_012</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建用户</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>case_013</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看某个用户</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_014</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除用户</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看所有用户</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"case_011":["$.data[(@.length-1)].id","$.data[?(@.name=='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>')].dhId"]}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"case_012":["$.data[?(@.name=='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试账号2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>')].id"]}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "id" : 1275,
+  "dhId" : "test1",
+  "name" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试账号3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+  "admin" : 0,
+  "companyId" : 6,
+  "status" : 1,
+  "createdAt" : "2020-10-23 18:24:24",
+  "updatedAt" : "2020-10-29 09:49:34",
+  "department" : {
+    "id" : 147,
+    "name" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电梦网络测试组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+    "orgId" : 265,
+    "orgType" : 1,
+    "pid" : 0,
+    "status" : 1,
+    "pms" : "fangwei",
+    "adminUsers" : "zhujun,shencenwei",
+    "products" : "5",
+    "productList" : null,
+    "demandTypes" : [{
+				"id": 37,
+				"name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+			}, {
+				"id": 46,
+				"name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+			}, {
+				"id": 44,
+				"name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+			}, {
+				"id": 45,
+				"name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+			}],
+    "projects" : [{
+				"id": 41,
+				"name": null
+			}, {
+				"id": 42,
+				"name": null
+			}],
+    "createdAt" : "2020-10-20 14:39:26",
+    "updatedAt" : "2020-12-21 14:33:44"
+  }
+}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"case_012":["$.data.id"]}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -685,28 +1290,28 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -985,15 +1590,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
@@ -1008,7 +1613,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1055,10 +1660,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1090,8 +1695,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1">
-      <c r="A3" s="20" t="s">
-        <v>48</v>
+      <c r="A3" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>43</v>
@@ -1100,7 +1705,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>33</v>
@@ -1122,7 +1727,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1132,7 +1737,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>33</v>
@@ -1150,17 +1755,17 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>33</v>
@@ -1176,17 +1781,17 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>33</v>
@@ -1195,87 +1800,373 @@
         <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="M6" t="s">
         <v>56</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="12" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="4"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="2"/>
-      <c r="N34" s="7"/>
+    <row r="8" spans="1:15">
+      <c r="A8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="42" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="12" customHeight="1">
-      <c r="A35" s="20"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="4"/>
-      <c r="K35" s="8"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="2"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" ht="12" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="6"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
-      <c r="L36" s="8"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="4"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="2"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" ht="12" customHeight="1">
-      <c r="A37" s="20"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="6"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="6"/>
+      <c r="L37" s="8"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1">
-      <c r="A38" s="20"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="6"/>
       <c r="E38" s="6"/>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1">
-      <c r="A39" s="20"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="6"/>
-      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="20"/>
+    <row r="40" spans="1:14" ht="12" customHeight="1">
+      <c r="A40" s="14"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="4"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="2"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
       <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="14"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="4"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="2"/>
+      <c r="N41" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D65537 D1:D4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D4 D16:D65538 D12:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G65537 G1:G4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 G16:G65538 G12:G14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1310,322 +2201,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" ht="33" customHeight="1">
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="4:13">
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="4:13">
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="4:13" ht="78" customHeight="1">
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="4:13">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="4:13">
-      <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="4:13" ht="15" customHeight="1">
-      <c r="D7" s="12"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="4:13">
-      <c r="D9" s="12"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="4:13" ht="45" customHeight="1">
-      <c r="D10" s="12"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="4:13" ht="44.1" customHeight="1">
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="4:13">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" spans="4:13">
-      <c r="D13" s="12"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="4:13" ht="30.95" customHeight="1">
-      <c r="D14" s="12"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="4:13">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="4:13">
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="4:13" ht="108" customHeight="1">
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="4:13">
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="4:13" ht="153" customHeight="1">
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="D21:D23"/>
@@ -1637,6 +2523,11 @@
     <mergeCell ref="E18:M20"/>
     <mergeCell ref="E21:M23"/>
     <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/autoPy/data/case_data.xlsx
+++ b/autoPy/data/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F78271D-9FAD-4243-AF08-7882333BF682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9368587-C079-43A1-B075-8AAD70BABDF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
   <si>
     <t>用例编号</t>
   </si>
@@ -977,29 +977,6 @@
         <family val="2"/>
       </rPr>
       <t>')].dhId"]}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"case_012":["$.data[?(@.name=='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试账号2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>')].id"]}</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1156,6 +1133,254 @@
   </si>
   <si>
     <t>{"case_012":["$.data.id"]}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_015</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分页查询</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/admin-user/page-query</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"page": "0", "size": "20","query":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>","query":"1"}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_016</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改用户信息</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "id" : 1275,
+  "dhId" : "test1",
+  "name" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3",
+  "admin" : 0,
+  "companyId" : 6,
+  "status" : 1,
+  "createdAt" : "2020-10-23 18:24:24",
+  "updatedAt" : "2020-10-29 09:49:34",
+  "department" : {
+    "id" : 147,
+    "name" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电梦网络测试组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+    "orgId" : 265,
+    "orgType" : 1,
+    "pid" : 0,
+    "status" : 1,
+    "pms" : "fangwei",
+    "adminUsers" : "zhujun,shencenwei",
+    "products" : "5",
+    "productList" : null,
+    "demandTypes" : [{
+				"id": 37,
+				"name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+			}, {
+				"id": 46,
+				"name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+			}, {
+				"id": 44,
+				"name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+			}, {
+				"id": 45,
+				"name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+			}],
+    "projects" : [{
+				"id": 41,
+				"name": null
+			}, {
+				"id": 42,
+				"name": null
+			}],
+    "createdAt" : "2020-10-20 14:39:26",
+    "updatedAt" : "2020-12-21 14:33:44"
+  }
+}</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1272,7 +1497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1294,24 +1519,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1590,10 +1816,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1694,7 +1920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>47</v>
       </c>
@@ -1704,7 +1930,7 @@
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="21" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1993,7 +2219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="42" customHeight="1">
+    <row r="13" spans="1:15" ht="24" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>79</v>
       </c>
@@ -2019,7 +2245,7 @@
         <v>90</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M13" t="s">
         <v>38</v>
@@ -2054,7 +2280,7 @@
         <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M14" t="s">
         <v>38</v>
@@ -2063,33 +2289,36 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="24.75" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
         <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="M15" t="s">
         <v>38</v>
@@ -2098,41 +2327,102 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="12" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="4"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="2"/>
-      <c r="N35" s="7"/>
+    <row r="16" spans="1:15">
+      <c r="A16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" spans="1:14" ht="12" customHeight="1">
       <c r="A36" s="14"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
-      <c r="K36" s="8"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="2"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" ht="12" customHeight="1">
       <c r="A37" s="14"/>
-      <c r="B37" s="6"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="6"/>
-      <c r="L37" s="8"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="4"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="2"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1">
       <c r="A38" s="14"/>
       <c r="B38" s="6"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="6"/>
+      <c r="L38" s="8"/>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1">
@@ -2144,29 +2434,35 @@
     <row r="40" spans="1:14" ht="12" customHeight="1">
       <c r="A40" s="14"/>
       <c r="B40" s="6"/>
-      <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" ht="12" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="4"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="2"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
       <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="14"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="4"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="2"/>
+      <c r="N42" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D4 D16:D65538 D12:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D4 D12:D16 D18:D65539" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 G16:G65538 G12:G14" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 G12:G16 G18:G65539" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2201,317 +2497,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" ht="33" customHeight="1">
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="4:13">
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="4:13">
-      <c r="D3" s="17"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="4:13" ht="78" customHeight="1">
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="4:13">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="4:13">
-      <c r="D6" s="17"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="4:13" ht="15" customHeight="1">
-      <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="4:13">
-      <c r="D9" s="17"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="4:13" ht="45" customHeight="1">
-      <c r="D10" s="17"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="4:13" ht="44.1" customHeight="1">
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="4:13">
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="4:13">
-      <c r="D13" s="17"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="4:13" ht="30.95" customHeight="1">
-      <c r="D14" s="17"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="4:13">
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="4:13">
-      <c r="D16" s="17"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="4:13" ht="108" customHeight="1">
-      <c r="D17" s="17"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" spans="4:13">
-      <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" spans="4:13" ht="153" customHeight="1">
-      <c r="D20" s="17"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="D22" s="17"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="D23" s="17"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="D21:D23"/>
@@ -2523,11 +2824,6 @@
     <mergeCell ref="E18:M20"/>
     <mergeCell ref="E21:M23"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/autoPy/data/case_data.xlsx
+++ b/autoPy/data/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9368587-C079-43A1-B075-8AAD70BABDF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F77DEA-EBE1-4C0F-8BD3-DC35524CCD24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
   <si>
     <t>用例编号</t>
   </si>
@@ -831,9 +831,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>case_013</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -918,10 +915,6 @@
   </si>
   <si>
     <t>delete</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1818,8 +1811,8 @@
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1931,7 +1924,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>33</v>
@@ -1962,8 +1955,8 @@
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>81</v>
+      <c r="D4" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>33</v>
@@ -1991,7 +1984,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>33</v>
@@ -2017,7 +2010,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>33</v>
@@ -2049,7 +2042,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>33</v>
@@ -2081,7 +2074,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>33</v>
@@ -2113,7 +2106,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>33</v>
@@ -2145,7 +2138,7 @@
         <v>72</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>33</v>
@@ -2177,7 +2170,7 @@
         <v>75</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>33</v>
@@ -2197,7 +2190,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>77</v>
@@ -2219,7 +2212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1">
+    <row r="13" spans="1:15" ht="21.75" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>79</v>
       </c>
@@ -2242,10 +2235,10 @@
         <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M13" t="s">
         <v>38</v>
@@ -2256,10 +2249,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>77</v>
@@ -2277,10 +2270,10 @@
         <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
         <v>38</v>
@@ -2291,10 +2284,10 @@
     </row>
     <row r="15" spans="1:15" ht="24.75" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>77</v>
@@ -2306,19 +2299,19 @@
         <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s">
         <v>38</v>
@@ -2329,13 +2322,13 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>51</v>
@@ -2350,7 +2343,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M16" t="s">
         <v>38</v>
@@ -2361,10 +2354,10 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>77</v>
@@ -2376,16 +2369,16 @@
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M17" t="s">
         <v>38</v>

--- a/autoPy/data/case_data.xlsx
+++ b/autoPy/data/case_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F77DEA-EBE1-4C0F-8BD3-DC35524CCD24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2AA6DA-57F8-4E6D-8B0E-6AAF15F89E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
   <si>
     <t>用例编号</t>
   </si>
@@ -1226,6 +1226,9 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
     <r>
       <t>{
   "id" : 1275,
@@ -1373,6 +1376,115 @@
     "updatedAt" : "2020-12-21 14:33:44"
   }
 }</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取当前登录用户</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/admin-user/user</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_017</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置全局管理员</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/admin-user/admin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_018</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理取消管理员</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/admin-user/cancel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_019</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"message":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只有超级管理员才可以操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>","code":10001001 }</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1809,10 +1921,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2311,7 +2423,7 @@
         <v>90</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" t="s">
         <v>38</v>
@@ -2357,10 +2469,10 @@
         <v>95</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>51</v>
@@ -2369,17 +2481,10 @@
         <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" t="s">
-        <v>90</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" t="s">
         <v>38</v>
       </c>
@@ -2387,75 +2492,184 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="12" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="4"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="2"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" ht="12" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="4"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="2"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" ht="12" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="6"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="6"/>
-      <c r="L38" s="8"/>
-      <c r="N38" s="7"/>
+    <row r="18" spans="1:14" ht="25.5">
+      <c r="A18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="25.5">
+      <c r="A19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1">
       <c r="A39" s="14"/>
-      <c r="B39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="4"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="2"/>
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" ht="12" customHeight="1">
       <c r="A40" s="14"/>
-      <c r="B40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="4"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="2"/>
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" ht="12" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="6"/>
+      <c r="L41" s="8"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" ht="12" customHeight="1">
       <c r="A42" s="14"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="4"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="2"/>
+      <c r="E42" s="6"/>
       <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" ht="12" customHeight="1">
+      <c r="A43" s="14"/>
+      <c r="B43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" ht="12" customHeight="1">
+      <c r="A44" s="14"/>
+      <c r="B44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="14"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="4"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="2"/>
+      <c r="N45" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D4 D12:D16 D18:D65539" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D4 D12:D19 D21:D65542" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 G12:G16 G18:G65539" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 G12:G19 G21:G65542" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
   </dataValidations>

--- a/autoPy/data/case_data.xlsx
+++ b/autoPy/data/case_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2AA6DA-57F8-4E6D-8B0E-6AAF15F89E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015E8B60-F110-4F98-8984-5BB394EAB6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="122">
   <si>
     <t>用例编号</t>
   </si>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>文件对象参数</t>
-  </si>
-  <si>
-    <t>指接口中接受文件上传内容的请求参数变量</t>
   </si>
   <si>
     <t>上传文件对象路径填写形式</t>
@@ -915,6 +912,10 @@
   </si>
   <si>
     <t>delete</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1488,12 +1489,93 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>case_020</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AttachmentControllerImpl|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传文件</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/upload</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指接口中接受文件上传内容的请求参数变量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileValue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_021</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AttachmentControllerImpl|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询分页</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/page-query</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_022</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AttachmentControllerImpl|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询所有列表</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\1.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1548,11 +1630,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1620,29 +1697,29 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1924,7 +2001,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1933,8 +2010,8 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="56.42578125" customWidth="1"/>
     <col min="11" max="11" width="62.7109375" customWidth="1"/>
     <col min="12" max="12" width="41.140625" customWidth="1"/>
@@ -1981,13 +2058,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
@@ -1995,16 +2072,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -2013,338 +2090,338 @@
         <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>51</v>
+      <c r="D4" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G4" s="4"/>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5">
       <c r="A5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5">
+      <c r="A6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="B6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5">
+      <c r="A7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
+      <c r="A8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5">
+      <c r="A9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5">
+      <c r="A10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
         <v>34</v>
       </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5">
+      <c r="A11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:15" ht="16.5">
+      <c r="A12" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G12" s="2"/>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="21.75" customHeight="1">
       <c r="A13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="K13" t="s">
         <v>88</v>
@@ -2353,33 +2430,33 @@
         <v>89</v>
       </c>
       <c r="M13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
         <v>86</v>
@@ -2388,33 +2465,33 @@
         <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="24.75" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s">
         <v>86</v>
@@ -2426,13 +2503,13 @@
         <v>99</v>
       </c>
       <c r="M15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5">
       <c r="A16" s="13" t="s">
         <v>91</v>
       </c>
@@ -2442,14 +2519,14 @@
       <c r="C16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>51</v>
+      <c r="D16" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>16</v>
@@ -2458,13 +2535,13 @@
         <v>94</v>
       </c>
       <c r="M16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16.5">
       <c r="A17" s="13" t="s">
         <v>95</v>
       </c>
@@ -2474,25 +2551,25 @@
       <c r="C17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>51</v>
+      <c r="D17" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="25.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="27.75">
       <c r="A18" s="13" t="s">
         <v>102</v>
       </c>
@@ -2502,11 +2579,11 @@
       <c r="C18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>51</v>
+      <c r="D18" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>97</v>
@@ -2522,13 +2599,13 @@
       </c>
       <c r="L18" s="2"/>
       <c r="M18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="25.5">
+    <row r="19" spans="1:14" ht="27.75">
       <c r="A19" s="13" t="s">
         <v>105</v>
       </c>
@@ -2538,17 +2615,17 @@
       <c r="C19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>51</v>
+      <c r="D19" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2560,33 +2637,33 @@
       </c>
       <c r="L19" s="2"/>
       <c r="M19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" ht="16.5">
       <c r="A20" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
         <v>86</v>
@@ -2595,11 +2672,111 @@
         <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="12"/>
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1">
       <c r="A39" s="14"/>
@@ -2666,7 +2843,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D4 D12:D19 D21:D65542" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D65542" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 G12:G19 G21:G65542" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -2690,8 +2867,8 @@
   </sheetPr>
   <dimension ref="C1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2704,322 +2881,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" ht="33" customHeight="1">
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="4:13">
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="4:13">
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="4:13" ht="78" customHeight="1">
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="4:13">
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="4:13">
-      <c r="D6" s="16"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="4:13" ht="15" customHeight="1">
-      <c r="D7" s="16"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="4:13">
-      <c r="D9" s="16"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="4:13" ht="45" customHeight="1">
-      <c r="D10" s="16"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="4:13" ht="44.1" customHeight="1">
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="4:13">
+      <c r="D12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="4:13">
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="4:13">
+      <c r="D13" s="18"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="4:13" ht="30.95" customHeight="1">
+      <c r="D14" s="18"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="4:13">
+      <c r="D15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="4:13">
-      <c r="D13" s="16"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="4:13" ht="30.95" customHeight="1">
-      <c r="D14" s="16"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="4:13">
-      <c r="D15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="4:13">
+      <c r="D16" s="18"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="4:13" ht="108" customHeight="1">
+      <c r="D17" s="18"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="4:13">
+      <c r="D18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="4:13">
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="4:13" ht="108" customHeight="1">
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="4:13">
-      <c r="D18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="17" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="4:13">
+      <c r="D19" s="18"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="4:13" ht="153" customHeight="1">
+      <c r="D20" s="18"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="4:13">
+      <c r="D21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="4:13">
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="4:13" ht="153" customHeight="1">
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="4:13">
-      <c r="D21" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="D21:D23"/>
@@ -3031,6 +3203,11 @@
     <mergeCell ref="E18:M20"/>
     <mergeCell ref="E21:M23"/>
     <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/autoPy/data/case_data.xlsx
+++ b/autoPy/data/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015E8B60-F110-4F98-8984-5BB394EAB6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC80E15-91E0-4C89-A515-0BCC0D16C751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="121">
   <si>
     <t>用例编号</t>
   </si>
@@ -399,10 +399,6 @@
   </si>
   <si>
     <t>数据校验</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>access_log:1|access_log:2|demand:1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1702,23 +1698,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2000,8 +1996,8 @@
   </sheetPr>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2072,7 +2068,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
@@ -2096,24 +2092,21 @@
         <v>37</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>32</v>
@@ -2136,16 +2129,16 @@
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D4" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>32</v>
@@ -2164,16 +2157,16 @@
     </row>
     <row r="5" spans="1:15" ht="16.5">
       <c r="A5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>32</v>
@@ -2190,16 +2183,16 @@
     </row>
     <row r="6" spans="1:15" ht="16.5">
       <c r="A6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>32</v>
@@ -2208,42 +2201,42 @@
         <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5">
       <c r="A7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D7" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
         <v>53</v>
-      </c>
-      <c r="J7" t="s">
-        <v>54</v>
       </c>
       <c r="M7" t="s">
         <v>37</v>
@@ -2254,28 +2247,28 @@
     </row>
     <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D8" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
         <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
       </c>
       <c r="M8" t="s">
         <v>37</v>
@@ -2286,28 +2279,28 @@
     </row>
     <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
         <v>60</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>61</v>
       </c>
       <c r="M9" t="s">
         <v>37</v>
@@ -2318,16 +2311,16 @@
     </row>
     <row r="10" spans="1:15" ht="16.5">
       <c r="A10" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>32</v>
@@ -2336,7 +2329,7 @@
         <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
         <v>34</v>
@@ -2350,16 +2343,16 @@
     </row>
     <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>32</v>
@@ -2376,16 +2369,16 @@
     </row>
     <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D12" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>32</v>
@@ -2403,31 +2396,31 @@
     </row>
     <row r="13" spans="1:15" ht="21.75" customHeight="1">
       <c r="A13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="M13" t="s">
         <v>37</v>
@@ -2438,16 +2431,16 @@
     </row>
     <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>32</v>
@@ -2456,13 +2449,13 @@
         <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M14" t="s">
         <v>37</v>
@@ -2473,34 +2466,34 @@
     </row>
     <row r="15" spans="1:15" ht="24.75" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s">
         <v>37</v>
@@ -2511,16 +2504,16 @@
     </row>
     <row r="16" spans="1:15" ht="16.5">
       <c r="A16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>32</v>
@@ -2532,7 +2525,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M16" t="s">
         <v>37</v>
@@ -2543,16 +2536,16 @@
     </row>
     <row r="17" spans="1:14" ht="16.5">
       <c r="A17" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>32</v>
@@ -2571,105 +2564,105 @@
     </row>
     <row r="18" spans="1:14" ht="27.75">
       <c r="A18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D18" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" t="s">
         <v>37</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="27.75">
       <c r="A19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D19" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" t="s">
         <v>37</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5">
       <c r="A20" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M20" t="s">
         <v>37</v>
@@ -2680,29 +2673,29 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M21" t="s">
         <v>37</v>
@@ -2713,16 +2706,16 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D22" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>32</v>
@@ -2745,16 +2738,16 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D23" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>32</v>
@@ -2881,317 +2874,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" ht="33" customHeight="1">
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="4:13">
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="4:13">
-      <c r="D3" s="18"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="4:13" ht="78" customHeight="1">
-      <c r="D4" s="18"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="4:13">
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="4:13">
-      <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="4:13" ht="15" customHeight="1">
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="4:13">
-      <c r="D9" s="18"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="4:13" ht="45" customHeight="1">
-      <c r="D10" s="18"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="4:13" ht="44.1" customHeight="1">
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="E11" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="4:13">
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" spans="4:13">
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="4:13" ht="30.95" customHeight="1">
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="4:13">
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="4:13">
-      <c r="D16" s="18"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="4:13" ht="108" customHeight="1">
-      <c r="D17" s="18"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="4:13">
-      <c r="D19" s="18"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="4:13" ht="153" customHeight="1">
-      <c r="D20" s="18"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="D22" s="18"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="D23" s="18"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="D21:D23"/>
@@ -3203,11 +3201,6 @@
     <mergeCell ref="E18:M20"/>
     <mergeCell ref="E21:M23"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/autoPy/data/case_data.xlsx
+++ b/autoPy/data/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyAutoTest\autoPy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC80E15-91E0-4C89-A515-0BCC0D16C751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566C4FE-08AD-4D7C-8899-5A3AFE4E4B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="151">
   <si>
     <t>用例编号</t>
   </si>
@@ -1513,10 +1513,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>fileValue</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>case_021</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1563,7 +1559,389 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>E:\1.jpg</t>
+    <t>file</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>["e:/1.jpg","e:/2.jpg"]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_023</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品管理接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看所有产品</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/product</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_024</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品管理接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看产品分页</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/product/page-query</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"page": "0", "size": "11"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_025</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品管理接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|save</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "uniqId" : 2005037263,
+  "enName" : "",
+  "name" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+  "icon" : "",
+  "status" : 0,
+  "createdAt" : "2021-01-01 00:00:04",
+  "updatedAt" : "2021-01-01 00:00:04"
+}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动态信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/dynamic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动态信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|pageQuery</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/dynamic/page-query</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动态信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的动态</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/dynamic/my</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_026</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_027</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询所有</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/message</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的消息</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/message/my</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_028</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/message/view</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看详情</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"case_027":["$.data.content[0].id"]}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_029</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置已读</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":true }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.[data.status]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1571,7 +1949,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1632,6 +2010,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1698,23 +2081,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1994,10 +2377,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2007,12 +2391,12 @@
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
     <col min="10" max="10" width="56.42578125" customWidth="1"/>
     <col min="11" max="11" width="62.7109375" customWidth="1"/>
     <col min="12" max="12" width="41.140625" customWidth="1"/>
     <col min="13" max="13" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="35.28515625" customWidth="1"/>
+    <col min="14" max="14" width="40.28515625" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2095,7 +2479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="16.5" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
@@ -2127,7 +2511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
@@ -2682,7 +3066,7 @@
         <v>111</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>32</v>
@@ -2692,7 +3076,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I21" t="s">
         <v>120</v>
@@ -2706,13 +3090,13 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>84</v>
@@ -2738,13 +3122,13 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>84</v>
@@ -2769,78 +3153,390 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="B24" s="12"/>
-    </row>
-    <row r="39" spans="1:14" ht="12" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="4"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="2"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" ht="12" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="4"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="2"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" ht="12" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="6"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="6"/>
-      <c r="L41" s="8"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" ht="12" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" ht="12" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" ht="12" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="14"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="4"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="2"/>
-      <c r="N45" s="7"/>
+      <c r="A24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M28" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" t="s">
+        <v>150</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="M31" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M32" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="23.25" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M33" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="12" customHeight="1">
+      <c r="A46" s="14"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="4"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="2"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" ht="12" customHeight="1">
+      <c r="A47" s="14"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="4"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="2"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" ht="12" customHeight="1">
+      <c r="A48" s="14"/>
+      <c r="B48" s="6"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="6"/>
+      <c r="L48" s="8"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" ht="12" customHeight="1">
+      <c r="A49" s="14"/>
+      <c r="B49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" ht="12" customHeight="1">
+      <c r="A50" s="14"/>
+      <c r="B50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" ht="12" customHeight="1">
+      <c r="A51" s="14"/>
+      <c r="B51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="14"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="4"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="2"/>
+      <c r="N52" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D65542" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 G12:G19 G21:G65549" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"params,data,json"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D65549" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 G12:G19 G21:G65542" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"params,data,json"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -2874,322 +3570,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" ht="33" customHeight="1">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="4:13">
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="4:13">
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="4:13" ht="78" customHeight="1">
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="4:13">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="4:13">
-      <c r="D6" s="17"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="4:13" ht="15" customHeight="1">
-      <c r="D7" s="17"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="4:13">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="4:13">
-      <c r="D9" s="17"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="4:13" ht="45" customHeight="1">
-      <c r="D10" s="17"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="4:13" ht="44.1" customHeight="1">
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="4:13">
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="4:13">
-      <c r="D13" s="17"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="4:13" ht="30.95" customHeight="1">
-      <c r="D14" s="17"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="4:13">
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="4:13">
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="4:13" ht="108" customHeight="1">
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="4:13">
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="4:13" ht="153" customHeight="1">
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="D21:D23"/>
@@ -3201,6 +3892,11 @@
     <mergeCell ref="E18:M20"/>
     <mergeCell ref="E21:M23"/>
     <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
